--- a/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/LYXF_sum_stat.xlsx
+++ b/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/LYXF_sum_stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,262 +482,291 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0001632250505147439</v>
+        <v>0.0003189159400500502</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000135072529122815</v>
+        <v>-5.306134634863735e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008604287782205709</v>
+        <v>0.008250854039563762</v>
       </c>
       <c r="D2" t="n">
-        <v>7.403376823901444e-05</v>
+        <v>6.807659238218565e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03041680199703778</v>
+        <v>-0.02415258337934922</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.005561738930152632</v>
+        <v>-0.005356072107100679</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000135072529122815</v>
+        <v>-5.306134634863735e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005834959027694542</v>
+        <v>0.005988657737544145</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02396242043090813</v>
+        <v>0.02952365274386715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0002243367597767708</v>
+        <v>0.0001632250505147439</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0003761325421358652</v>
+        <v>0.000135072529122815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008136790955106039</v>
+        <v>0.008604287782205709</v>
       </c>
       <c r="D3" t="n">
-        <v>6.620736704709546e-05</v>
+        <v>7.403376823901444e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02757192255360219</v>
+        <v>-0.03041680199703778</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.005232535606800676</v>
+        <v>-0.005561738930152632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003761325421358652</v>
+        <v>0.000135072529122815</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005670922288342373</v>
+        <v>0.005834959027694542</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02453218720288741</v>
+        <v>0.02396242043090813</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0001930578384203957</v>
+        <v>0.0002243367597767708</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0002426770422799263</v>
+        <v>0.0003761325421358652</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008256456381929707</v>
+        <v>0.008136790955106039</v>
       </c>
       <c r="D4" t="n">
-        <v>6.816907198670778e-05</v>
+        <v>6.620736704709545e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02526254988433907</v>
+        <v>-0.02757192255360219</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00571090802664373</v>
+        <v>-0.005232535606800676</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0002426770422799263</v>
+        <v>0.0003761325421358652</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005529459077135868</v>
+        <v>0.005670922288342373</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02628923608072187</v>
+        <v>0.02453218720288741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0003404789277485437</v>
+        <v>-0.0001930578384203957</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0002772549316364947</v>
+        <v>-0.0002426770422799263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008277945006883546</v>
+        <v>0.008256456381929707</v>
       </c>
       <c r="D5" t="n">
-        <v>6.852437353698822e-05</v>
+        <v>6.816907198670778e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03104775211935717</v>
+        <v>-0.02526254988433907</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.005780719814719448</v>
+        <v>-0.00571090802664373</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0002772549316364947</v>
+        <v>-0.0002426770422799263</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005079085070098799</v>
+        <v>0.005529459077135868</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02482457665417082</v>
+        <v>0.02628923608072187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.000211418034778267</v>
+        <v>-0.0003404789277485437</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003462461467764744</v>
+        <v>-0.0002772549316364947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008468275094389528</v>
+        <v>0.008277945006883546</v>
       </c>
       <c r="D6" t="n">
-        <v>7.171168307425797e-05</v>
+        <v>6.852437353698822e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02731822346534929</v>
+        <v>-0.03104775211935717</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.005483214156251637</v>
+        <v>-0.005780719814719448</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0003462461467764744</v>
+        <v>-0.0002772549316364947</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005882967951960749</v>
+        <v>0.005079085070098799</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02604237731402881</v>
+        <v>0.02482457665417082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.0003501190106743538</v>
+        <v>-0.000211418034778267</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0003557940853177732</v>
+        <v>-0.0003462461467764744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008296013992384391</v>
+        <v>0.008468275094389528</v>
       </c>
       <c r="D7" t="n">
-        <v>6.882384816183761e-05</v>
+        <v>7.171168307425797e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02674842899196972</v>
+        <v>-0.02731822346534929</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006232529397015379</v>
+        <v>-0.005483214156251637</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0003557940853177732</v>
+        <v>-0.0003462461467764744</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005167325088904884</v>
+        <v>0.005882967951960749</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02224550007426207</v>
+        <v>0.02604237731402881</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0002569415886513977</v>
+        <v>-0.0003501190106743538</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.000348233882887683</v>
+        <v>-0.0003557940853177732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008380883848518485</v>
+        <v>0.008296013992384393</v>
       </c>
       <c r="D8" t="n">
-        <v>7.023921408235802e-05</v>
+        <v>6.882384816183763e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02939360635733712</v>
+        <v>-0.02674842899196972</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.005485810661744556</v>
+        <v>-0.006232529397015379</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.000348233882887683</v>
+        <v>-0.0003557940853177732</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004976394361895231</v>
+        <v>0.005167325088904884</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0244511007246313</v>
+        <v>0.02224550007426207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-8.675477931775833e-05</v>
+        <v>-0.0002569415886513977</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001931965898507304</v>
+        <v>-0.000348233882887683</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008357867423076534</v>
+        <v>0.008380883848518485</v>
       </c>
       <c r="D9" t="n">
-        <v>6.985394786172399e-05</v>
+        <v>7.0239214082358e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02171754517601698</v>
+        <v>-0.02939360635733712</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005534167121881539</v>
+        <v>-0.005485810661744556</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0001931965898507304</v>
+        <v>-0.000348233882887683</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005345089225950006</v>
+        <v>0.004976394361895231</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03288669958835855</v>
+        <v>0.0244511007246313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>-8.675477931775833e-05</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.0001931965898507304</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.008357867423076534</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.985394786172398e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.02171754517601698</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.005534167121881539</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.0001931965898507304</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.005345089225950006</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03288669958835855</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>-6.017339168475425e-05</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>-0.0001242535882244322</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>0.008819067735777683</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>7.777595572823491e-05</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>-0.03308990625365493</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-0.006106856621573814</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>-0.0001242535882244322</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.006406809683476067</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.0269367309365014</v>
       </c>
     </row>
